--- a/df_list_20250110.xlsx
+++ b/df_list_20250110.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="291">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -595,16 +595,311 @@
   </si>
   <si>
     <t>함안군 공공하수처리시설 수질TMS 대행관리 용역 제안서 평가 결과 공고</t>
+  </si>
+  <si>
+    <t>A019</t>
+  </si>
+  <si>
+    <t>대구광역시고시공고</t>
+  </si>
+  <si>
+    <t>https://www.daegu.go.kr/index.do?menu_id=00940170</t>
+  </si>
+  <si>
+    <t>대구광역시 민간투자사업심의위원회 위원 공개모집 결과 공고</t>
+  </si>
+  <si>
+    <t>2025년 민방위 사이버 교육 사전검토 심의자료 제출 안내</t>
+  </si>
+  <si>
+    <t>A041</t>
+  </si>
+  <si>
+    <t>경기도_용인시처인구</t>
+  </si>
+  <si>
+    <t>https://eminwon.yongin.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=10&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;list_gubun=&amp;epcCheck=Y;</t>
+  </si>
+  <si>
+    <t>『보정 N54지구 급경사지 상시계측관리 체계 구축 용역』 제안서 평가위원...</t>
+  </si>
+  <si>
+    <t>A050</t>
+  </si>
+  <si>
+    <t>경기도_부천시</t>
+  </si>
+  <si>
+    <t>https://eminwon.bucheon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?epcCheck=Y</t>
+  </si>
+  <si>
+    <t>2025. 마을공동체 주민제안 공모사업 공고</t>
+  </si>
+  <si>
+    <t>부천시 도시계획정보체계(UPIS) DB 현행화 용역 제안서 평가위원(후보...</t>
+  </si>
+  <si>
+    <t>A059</t>
+  </si>
+  <si>
+    <t>경기도_안성시</t>
+  </si>
+  <si>
+    <t>https://www.anseong.go.kr/portal/saeol/gosiList.do?mId=0501040000&amp;token=1717572030185</t>
+  </si>
+  <si>
+    <t>？2025년 안성시 평생교육통합플랫폼 안성배움e 홈페이지 기능개선 및 유지관리 용역？제안서 평가위원 후보자 모집 공고</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>충청도_보은군</t>
+  </si>
+  <si>
+    <t>https://www.boeun.go.kr/www/selectBbsNttList.do?bbsNo=66&amp;key=194&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>보은군 도시재생사업(우리동네살리기) 실행계획 수립 용역 제안서 평가위원 후보자 모집공고</t>
+  </si>
+  <si>
+    <t>https://www.boeun.go.kr/www/selectBbsNttList.do?bbsNo=66&amp;key=194&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>「소나무홍보전시관 몰입형 미디어아트 콘텐츠 제작 및 전시설치 용역」 제안서 정성평가 및 평가위원 명단 공고</t>
+  </si>
+  <si>
+    <t>A114</t>
+  </si>
+  <si>
+    <t>충청도_천안시</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheonan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05&amp;epcCheck=Y&amp;recent_mm=60</t>
+  </si>
+  <si>
+    <t>제1회 천안시 건축위원회 심의 주요결과 공고</t>
+  </si>
+  <si>
+    <t>A144</t>
+  </si>
+  <si>
+    <t>전라도_구례군</t>
+  </si>
+  <si>
+    <t>https://www.gurye.go.kr/board/GosiList.do?not_ancmt_se_code=01,04,06,07&amp;menuNo=115004002001&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>평도지구 농어촌 마을하수도 증설사업 하수처리시설 공법선정 결과 및 평가위...</t>
+  </si>
+  <si>
+    <t>A158</t>
+  </si>
+  <si>
+    <t>경상도_경산시</t>
+  </si>
+  <si>
+    <t>https://www.gbgs.go.kr/open_content/ko/page.do?mnu_uid=2160&amp;pageSize=90</t>
+  </si>
+  <si>
+    <t>「환경취약지역 일반쓰레기 일요일 수거 시범 대행용역」제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A166</t>
+  </si>
+  <si>
+    <t>경상도_영천시</t>
+  </si>
+  <si>
+    <t>https://www.yc.go.kr/portal/saeol/gosi/list.do?mId=0301040000</t>
+  </si>
+  <si>
+    <t>영천시 건축위원회(건축구조분야 전문위원회) 심의 결과 공고</t>
+  </si>
+  <si>
+    <t>A175</t>
+  </si>
+  <si>
+    <t>경상도_울진군</t>
+  </si>
+  <si>
+    <t>https://www.uljin.go.kr/index.uljin?menuCd=DOM_000000103002007000</t>
+  </si>
+  <si>
+    <t>「죽변항 청정해수공급시설 지원사업」 특정 공법(특허・신기술) 제안 공고</t>
+  </si>
+  <si>
+    <t>A014</t>
+  </si>
+  <si>
+    <t>전북도로관리사업소</t>
+  </si>
+  <si>
+    <t>https://www.jeonbuk.go.kr/board/list.jeonbuk?boardId=BBS_0000129&amp;menuCd=DOM_000000102002005000&amp;contentsSid=1379&amp;cpath=&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>2025년 전북특별자치도 민방위 사이버교육 사전검토 심의자료 제출안내 공고</t>
+  </si>
+  <si>
+    <t>『2025년 보라매고가 보수공사 외 3건』 신기술·특허공법 제안서 제출안내 공고</t>
+  </si>
+  <si>
+    <t>2025년 소화조 및 저류조 준설공사  관련 신기술·특허공법 선정 1차 평가결과 공고</t>
+  </si>
+  <si>
+    <t>강서도로사업소  "오금교보수공사 외 2건(4개공법) 특정공법 선정 1차 정량평가 결과 안내 공고</t>
+  </si>
+  <si>
+    <t>부산광역시 교통카드시스템 사업자 선정 제안서 평가위원회 결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=2</t>
+  </si>
+  <si>
+    <t>2025년 지휘훈련시스템 유지보수 용역 입찰 제안서 평가위원(후보자)모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.ulsan.go.kr/u/rep/transfer/notice/list.ulsan?mId=001004002000000000&amp;curPage=2</t>
+  </si>
+  <si>
+    <t>A024</t>
+  </si>
+  <si>
+    <t>세종소개공고</t>
+  </si>
+  <si>
+    <t>https://www.sejong.go.kr/prog/publicNotice/kor/sub02_0303/C1/list.do</t>
+  </si>
+  <si>
+    <t>2025년 세종특별자치시 민방위 사이버교육 사전검토 심의자료 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=4</t>
+  </si>
+  <si>
+    <t>경기도농업기술원 정보화사업 관련 제안서 평가위원 인력풀 공개모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.chungbuk.go.kr/www/selectGosiPblancList.do?key=422&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A029</t>
+  </si>
+  <si>
+    <t>전북고시공고</t>
+  </si>
+  <si>
+    <t>「2025년 시정소식지 월간파주 제작용역」 제안서 평가위원회 평가 결과 공고N</t>
+  </si>
+  <si>
+    <t>https://www.gp.go.kr/portal/selectGosiList.do?key=2148&amp;not_ancmt_se_code=01&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A093</t>
+  </si>
+  <si>
+    <t>충청도_제천시</t>
+  </si>
+  <si>
+    <t>https://www.jecheon.go.kr/www/selectBbsNttList.do?bbsNo=18&amp;key=5233&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>경계결정위원회 심의 및 지적재조사위원회(이의신청) 회의록 공개새글</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=4</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=9</t>
+  </si>
+  <si>
+    <t>청주일반산업단지 아름다운거리 조성사업 제안서제출안내 공고</t>
+  </si>
+  <si>
+    <t>https://www.brcn.go.kr/prog/eminwon/kor/BB/sub04_03_01/list.do?pageIndex=4</t>
+  </si>
+  <si>
+    <t>A136</t>
+  </si>
+  <si>
+    <t>전라도_광양시</t>
+  </si>
+  <si>
+    <t>https://gwangyang.go.kr/saeol/gosi.es?mid=a11005020000&amp;type_code=02,04</t>
+  </si>
+  <si>
+    <t>도시계획도로 광로2-5호선 확포장공사 실시설계 성황교(확장) 특정공법선정위원회 평가 결과 공개</t>
+  </si>
+  <si>
+    <t>http://www.suncheon.go.kr/kr/news/0004/0005/0001/?x=1&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>용역 사전규격공개 [남문터광장 애니메이션 클러스터 조성 설계공모(제안)]</t>
+  </si>
+  <si>
+    <t>http://www.suncheon.go.kr/kr/news/0004/0005/0001/?x=1&amp;pageIndex=4</t>
+  </si>
+  <si>
+    <t>A140</t>
+  </si>
+  <si>
+    <t>전라도_여수시</t>
+  </si>
+  <si>
+    <t>https://www.yeosu.go.kr/www/govt/news/notify?page=1</t>
+  </si>
+  <si>
+    <t>여수시 공공갈등관리심의위원회 위원 모집 공고새로운글</t>
+  </si>
+  <si>
+    <t>A156</t>
+  </si>
+  <si>
+    <t>전라도_해남군</t>
+  </si>
+  <si>
+    <t>https://www.haenam.go.kr/planweb/board/list.9is?contentUid=18e3368f5d745106015de961fbbd205e&amp;boardUid=18e3368f644b01470164eeb23d7b30f5&amp;contentUid=18e3368f5d745106015de961fbbd205e</t>
+  </si>
+  <si>
+    <t>해남군 하수관로 GIS DB구축용역 제안서 평가위원회 평가결...파일NEW</t>
+  </si>
+  <si>
+    <t>「구미시민운동장 스포츠조명시설 구매・설치」제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.changwon.go.kr/cwportal/10310/10438/10439.web?&amp;cpage=3</t>
+  </si>
+  <si>
+    <t>A186</t>
+  </si>
+  <si>
+    <t>경상도_거제시</t>
+  </si>
+  <si>
+    <t>https://www.geoje.go.kr/index.geoje?menuCd=DOM_000008902001002001&amp;listRow=90</t>
+  </si>
+  <si>
+    <t>2025 거제 정원산업박람회 기획운영 대행용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.haman.go.kr/02385/02392/05764.web?&amp;cpage=3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -626,6 +921,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -656,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -666,6 +965,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2007,109 +2315,2066 @@
         <v>45667.492256944446</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45665.0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" s="7">
+        <v>45665.0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E59" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E60" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E61" s="7">
+        <v>45665.0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E63" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E64" s="7">
+        <v>45665.0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E65" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E66" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F66" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E67" s="7">
+        <v>45665.0</v>
+      </c>
+      <c r="F67" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E68" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E69" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E70" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E71" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E72" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E73" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="7">
+        <v>45665.0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E77" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E78" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="7">
+        <v>45665.0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" s="7">
+        <v>45665.0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E85" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F85" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E86" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F86" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F87" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F89" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E90" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F91" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E92" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F92" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E93" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F93" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E94" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F94" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E95" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F95" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E96" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F96" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E97" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F97" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E98" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F98" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E99" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F99" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E100" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F100" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E101" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F101" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E102" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F102" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E103" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F103" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E104" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F104" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E105" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F105" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E106" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F106" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E107" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F107" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E108" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F108" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E109" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F109" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E110" s="7">
+        <v>45665.0</v>
+      </c>
+      <c r="F110" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E111" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F111" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E112" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F112" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F113" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E114" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F114" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E115" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F115" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E116" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F116" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E117" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F117" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E118" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F118" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E119" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F119" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E120" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F120" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E121" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F121" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E122" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F122" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E123" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F123" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E124" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F124" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E125" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F125" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E126" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F126" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E127" s="7">
+        <v>45665.0</v>
+      </c>
+      <c r="F127" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E128" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F128" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E129" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F129" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E130" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F130" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E131" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F131" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E132" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F132" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E133" s="7">
+        <v>45665.0</v>
+      </c>
+      <c r="F133" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E134" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F134" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E135" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F135" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E136" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F136" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E137" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F137" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E138" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F138" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E139" s="7">
+        <v>45665.0</v>
+      </c>
+      <c r="F139" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E140" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F140" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E141" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F141" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E142" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F142" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E143" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F143" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E144" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F144" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E145" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F145" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E146" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F146" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E147" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F147" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E148" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F148" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E149" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F149" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E150" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F150" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E151" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F151" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E152" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F152" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E153" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F153" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E154" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F154" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E155" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F155" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E156" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F156" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E157" s="7">
+        <v>45667.0</v>
+      </c>
+      <c r="F157" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E158" s="7">
+        <v>45666.0</v>
+      </c>
+      <c r="F158" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E159" s="7">
+        <v>45665.0</v>
+      </c>
+      <c r="F159" s="7">
+        <v>45667.93651620371</v>
+      </c>
+    </row>
     <row r="160" ht="15.75" customHeight="1"/>
     <row r="161" ht="15.75" customHeight="1"/>
     <row r="162" ht="15.75" customHeight="1"/>
@@ -2952,9 +5217,114 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C57"/>
+    <hyperlink r:id="rId2" ref="C58"/>
+    <hyperlink r:id="rId3" ref="C59"/>
+    <hyperlink r:id="rId4" ref="C60"/>
+    <hyperlink r:id="rId5" ref="C61"/>
+    <hyperlink r:id="rId6" ref="C62"/>
+    <hyperlink r:id="rId7" ref="C63"/>
+    <hyperlink r:id="rId8" ref="C64"/>
+    <hyperlink r:id="rId9" ref="C65"/>
+    <hyperlink r:id="rId10" ref="C66"/>
+    <hyperlink r:id="rId11" ref="C67"/>
+    <hyperlink r:id="rId12" ref="C68"/>
+    <hyperlink r:id="rId13" ref="C69"/>
+    <hyperlink r:id="rId14" ref="C70"/>
+    <hyperlink r:id="rId15" location="list/1" ref="C71"/>
+    <hyperlink r:id="rId16" location="list/1" ref="C72"/>
+    <hyperlink r:id="rId17" location="list/1" ref="C73"/>
+    <hyperlink r:id="rId18" location="list/1" ref="C74"/>
+    <hyperlink r:id="rId19" location="list/1" ref="C75"/>
+    <hyperlink r:id="rId20" location="list/1" ref="C76"/>
+    <hyperlink r:id="rId21" ref="C77"/>
+    <hyperlink r:id="rId22" ref="C78"/>
+    <hyperlink r:id="rId23" ref="C79"/>
+    <hyperlink r:id="rId24" ref="C80"/>
+    <hyperlink r:id="rId25" ref="C81"/>
+    <hyperlink r:id="rId26" ref="C82"/>
+    <hyperlink r:id="rId27" ref="C83"/>
+    <hyperlink r:id="rId28" ref="C84"/>
+    <hyperlink r:id="rId29" ref="C85"/>
+    <hyperlink r:id="rId30" location="page=4" ref="C86"/>
+    <hyperlink r:id="rId31" ref="C87"/>
+    <hyperlink r:id="rId32" ref="C88"/>
+    <hyperlink r:id="rId33" ref="C89"/>
+    <hyperlink r:id="rId34" ref="C90"/>
+    <hyperlink r:id="rId35" ref="C91"/>
+    <hyperlink r:id="rId36" ref="C92"/>
+    <hyperlink r:id="rId37" ref="C93"/>
+    <hyperlink r:id="rId38" ref="C94"/>
+    <hyperlink r:id="rId39" ref="C95"/>
+    <hyperlink r:id="rId40" ref="C96"/>
+    <hyperlink r:id="rId41" ref="C97"/>
+    <hyperlink r:id="rId42" ref="C98"/>
+    <hyperlink r:id="rId43" ref="C99"/>
+    <hyperlink r:id="rId44" ref="C100"/>
+    <hyperlink r:id="rId45" ref="C101"/>
+    <hyperlink r:id="rId46" ref="C102"/>
+    <hyperlink r:id="rId47" ref="C103"/>
+    <hyperlink r:id="rId48" ref="C104"/>
+    <hyperlink r:id="rId49" ref="C105"/>
+    <hyperlink r:id="rId50" ref="C106"/>
+    <hyperlink r:id="rId51" ref="C107"/>
+    <hyperlink r:id="rId52" ref="C108"/>
+    <hyperlink r:id="rId53" ref="C109"/>
+    <hyperlink r:id="rId54" ref="C110"/>
+    <hyperlink r:id="rId55" ref="C111"/>
+    <hyperlink r:id="rId56" ref="C112"/>
+    <hyperlink r:id="rId57" ref="C113"/>
+    <hyperlink r:id="rId58" ref="C114"/>
+    <hyperlink r:id="rId59" ref="C115"/>
+    <hyperlink r:id="rId60" ref="C116"/>
+    <hyperlink r:id="rId61" ref="C117"/>
+    <hyperlink r:id="rId62" ref="C118"/>
+    <hyperlink r:id="rId63" ref="C119"/>
+    <hyperlink r:id="rId64" ref="C120"/>
+    <hyperlink r:id="rId65" ref="C121"/>
+    <hyperlink r:id="rId66" ref="C122"/>
+    <hyperlink r:id="rId67" ref="C123"/>
+    <hyperlink r:id="rId68" ref="C124"/>
+    <hyperlink r:id="rId69" ref="C125"/>
+    <hyperlink r:id="rId70" ref="C126"/>
+    <hyperlink r:id="rId71" ref="C127"/>
+    <hyperlink r:id="rId72" ref="C128"/>
+    <hyperlink r:id="rId73" ref="C129"/>
+    <hyperlink r:id="rId74" ref="C130"/>
+    <hyperlink r:id="rId75" ref="C131"/>
+    <hyperlink r:id="rId76" ref="C132"/>
+    <hyperlink r:id="rId77" ref="C133"/>
+    <hyperlink r:id="rId78" ref="C134"/>
+    <hyperlink r:id="rId79" ref="C135"/>
+    <hyperlink r:id="rId80" ref="C136"/>
+    <hyperlink r:id="rId81" ref="C137"/>
+    <hyperlink r:id="rId82" ref="C138"/>
+    <hyperlink r:id="rId83" ref="C139"/>
+    <hyperlink r:id="rId84" ref="C140"/>
+    <hyperlink r:id="rId85" ref="C141"/>
+    <hyperlink r:id="rId86" ref="C142"/>
+    <hyperlink r:id="rId87" ref="C143"/>
+    <hyperlink r:id="rId88" ref="C144"/>
+    <hyperlink r:id="rId89" ref="C145"/>
+    <hyperlink r:id="rId90" ref="C146"/>
+    <hyperlink r:id="rId91" ref="C147"/>
+    <hyperlink r:id="rId92" ref="C148"/>
+    <hyperlink r:id="rId93" ref="C149"/>
+    <hyperlink r:id="rId94" ref="C150"/>
+    <hyperlink r:id="rId95" ref="C151"/>
+    <hyperlink r:id="rId96" ref="C152"/>
+    <hyperlink r:id="rId97" ref="C153"/>
+    <hyperlink r:id="rId98" ref="C154"/>
+    <hyperlink r:id="rId99" ref="C155"/>
+    <hyperlink r:id="rId100" ref="C156"/>
+    <hyperlink r:id="rId101" ref="C157"/>
+    <hyperlink r:id="rId102" ref="C158"/>
+    <hyperlink r:id="rId103" ref="C159"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId104"/>
 </worksheet>
 </file>